--- a/Status/EnemyBaseStatus.xlsx
+++ b/Status/EnemyBaseStatus.xlsx
@@ -709,7 +709,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M1" sqref="M1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Status/EnemyBaseStatus.xlsx
+++ b/Status/EnemyBaseStatus.xlsx
@@ -203,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -211,219 +211,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,306 +505,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>20</v>
       </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="4">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>7</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="7">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7">
-        <v>4</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>5</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
-        <v>4</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7">
-        <v>4</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>30</v>
       </c>
-      <c r="D7" s="10">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10">
-        <v>10</v>
-      </c>
-      <c r="I7" s="10">
-        <v>10</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <v>30</v>
       </c>
-      <c r="D8" s="10">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10">
-        <v>10</v>
-      </c>
-      <c r="F8" s="10">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10">
-        <v>10</v>
-      </c>
-      <c r="I8" s="10">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <v>40</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="4">
         <v>15</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="4">
         <v>15</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="4">
         <v>15</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="4">
         <v>15</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="4">
         <v>15</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="4">
         <v>15</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Status/EnemyBaseStatus.xlsx
+++ b/Status/EnemyBaseStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,12 +709,12 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -746,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -780,11 +780,13 @@
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
       <c r="C3" s="4">
         <v>20</v>
       </c>
@@ -812,11 +814,13 @@
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
       <c r="C4" s="7">
         <v>12</v>
       </c>
@@ -844,11 +848,13 @@
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
       <c r="C5" s="7">
         <v>15</v>
       </c>
@@ -876,11 +882,13 @@
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
       <c r="C6" s="7">
         <v>18</v>
       </c>
@@ -908,11 +916,13 @@
       <c r="K6" s="7"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
       <c r="C7" s="10">
         <v>30</v>
       </c>
@@ -940,11 +950,13 @@
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
       <c r="C8" s="10">
         <v>30</v>
       </c>
@@ -972,11 +984,13 @@
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
       <c r="C9" s="14">
         <v>40</v>
       </c>

--- a/Status/EnemyBaseStatus.xlsx
+++ b/Status/EnemyBaseStatus.xlsx
@@ -203,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,11 +211,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -223,6 +251,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,7 +542,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -592,28 +626,28 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="5">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="G3" s="5">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
         <v>4</v>
       </c>
       <c r="K3" s="3"/>
@@ -628,28 +662,28 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>7</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6">
         <v>4</v>
       </c>
       <c r="K4" s="3"/>
@@ -664,28 +698,28 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="6">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>5</v>
       </c>
       <c r="K5" s="3"/>
@@ -700,28 +734,28 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="6">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6">
         <v>4</v>
       </c>
       <c r="K6" s="3"/>

--- a/Status/EnemyBaseStatus.xlsx
+++ b/Status/EnemyBaseStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>hp</t>
     <phoneticPr fontId="2"/>
@@ -166,6 +166,33 @@
   <si>
     <t>move</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>../Image/Player/Enemy00.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Enemy01.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Enemy02.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Enemy03.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Enemy04.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Enemy05.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Enemy06.png</t>
   </si>
 </sst>
 </file>
@@ -243,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -257,6 +284,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,12 +572,12 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J6"/>
+      <selection activeCell="K1" sqref="K1:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -578,12 +608,14 @@
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -614,12 +646,14 @@
       <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,12 +684,14 @@
       <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -686,12 +722,14 @@
       <c r="J4" s="6">
         <v>4</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -722,12 +760,14 @@
       <c r="J5" s="6">
         <v>5</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -758,12 +798,14 @@
       <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -794,12 +836,14 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -830,12 +874,14 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -866,12 +912,14 @@
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -887,7 +935,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -903,7 +951,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -919,7 +967,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -935,7 +983,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -951,7 +999,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -967,7 +1015,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
